--- a/Unity/Assets/Config/Excel/RobotConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RobotConfig.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B1426-9CE3-45DD-9624-E3E42AA169AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -42,31 +48,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>跟显示一样的数据</t>
+跟显示一样的数据</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -75,7 +70,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -92,14 +86,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -108,41 +101,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>组队机器人： 副本ID</t>
+组队机器人： 副本ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -151,20 +123,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>跟显示一样的数据</t>
+跟显示一样的数据</t>
         </r>
       </text>
     </comment>
@@ -173,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="63">
   <si>
     <t>cs</t>
   </si>
@@ -247,9 +209,15 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>测试机器人</t>
+  </si>
+  <si>
     <t>10,10,0,0,0</t>
   </si>
   <si>
+    <t>任务机器人</t>
+  </si>
+  <si>
     <t>组队副本机器人</t>
   </si>
   <si>
@@ -340,39 +308,35 @@
     <t>Solo机器人</t>
   </si>
   <si>
-    <t>任务机器人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>测试机器人1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试机器人2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔跑大赛机器人</t>
+  </si>
+  <si>
+    <t>-11.36;0.98;45.02;2</t>
   </si>
   <si>
     <t>恶魔活动机器人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>12.70;0.98;-44.76;2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>奔跑大赛机器人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-11.36;0.98;45.02;2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,7 +348,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -392,7 +355,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -400,45 +362,177 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,8 +551,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -479,71 +759,360 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 6" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -801,19 +1370,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.625" style="2" customWidth="1"/>
@@ -829,7 +1398,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -845,7 +1414,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -861,7 +1430,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -895,7 +1464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -929,7 +1498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
@@ -963,16 +1532,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B6" s="7"/>
       <c r="C6" s="5">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -982,66 +1551,60 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B7" s="7"/>
       <c r="C7" s="5">
-        <v>2101</v>
+        <v>1001</v>
       </c>
       <c r="D7" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>101</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="10">
-        <v>200200200200200</v>
-      </c>
       <c r="J7" s="8">
-        <v>2</v>
-      </c>
-      <c r="K7" s="5">
-        <v>110001</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B8" s="7"/>
       <c r="C8" s="5">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D8" s="5">
         <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>102</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>26</v>
+        <v>101</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="I8" s="10">
         <v>200200200200200</v>
@@ -1052,28 +1615,28 @@
       <c r="K8" s="5">
         <v>110001</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B9" s="7"/>
       <c r="C9" s="5">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D9" s="5">
         <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>103</v>
-      </c>
-      <c r="H9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="10">
@@ -1085,29 +1648,29 @@
       <c r="K9" s="5">
         <v>110001</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B10" s="7"/>
       <c r="C10" s="5">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D10" s="5">
         <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>201</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>29</v>
+        <v>103</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="I10" s="10">
         <v>200200200200200</v>
@@ -1118,29 +1681,29 @@
       <c r="K10" s="5">
         <v>110001</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B11" s="7"/>
       <c r="C11" s="5">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D11" s="5">
         <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
       </c>
       <c r="G11" s="5">
-        <v>202</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>29</v>
+        <v>201</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I11" s="10">
         <v>200200200200200</v>
@@ -1151,29 +1714,29 @@
       <c r="K11" s="5">
         <v>110001</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L11" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B12" s="7"/>
       <c r="C12" s="5">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D12" s="5">
         <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
       </c>
       <c r="G12" s="5">
-        <v>203</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>30</v>
+        <v>202</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I12" s="10">
         <v>200200200200200</v>
@@ -1184,64 +1747,63 @@
       <c r="K12" s="5">
         <v>110001</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L12" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B13" s="7"/>
       <c r="C13" s="5">
-        <f>C7+100</f>
-        <v>2201</v>
+        <v>2106</v>
       </c>
       <c r="D13" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5">
-        <v>101</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>31</v>
+        <v>203</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="I13" s="10">
-        <v>400400400400400</v>
+        <v>200200200200200</v>
       </c>
       <c r="J13" s="8">
         <v>2</v>
       </c>
       <c r="K13" s="5">
-        <v>110002</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110001</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B14" s="7"/>
       <c r="C14" s="5">
-        <f t="shared" ref="C14:C36" si="0">C8+100</f>
-        <v>2202</v>
+        <f>C8+100</f>
+        <v>2201</v>
       </c>
       <c r="D14" s="5">
         <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>102</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I14" s="10">
         <v>400400400400400</v>
@@ -1252,29 +1814,29 @@
       <c r="K14" s="5">
         <v>110002</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L14" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B15" s="7"/>
       <c r="C15" s="5">
-        <f t="shared" si="0"/>
-        <v>2203</v>
+        <f t="shared" ref="C15:C37" si="0">C9+100</f>
+        <v>2202</v>
       </c>
       <c r="D15" s="5">
         <v>35</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>103</v>
-      </c>
-      <c r="H15" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="10">
@@ -1286,30 +1848,30 @@
       <c r="K15" s="5">
         <v>110002</v>
       </c>
-      <c r="L15" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L15" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B16" s="7"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D16" s="5">
         <v>35</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5">
-        <v>201</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>34</v>
+        <v>103</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="I16" s="10">
         <v>400400400400400</v>
@@ -1320,30 +1882,30 @@
       <c r="K16" s="5">
         <v>110002</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L16" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B17" s="7"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D17" s="5">
         <v>35</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
       </c>
       <c r="G17" s="5">
-        <v>202</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>34</v>
+        <v>201</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I17" s="10">
         <v>400400400400400</v>
@@ -1354,30 +1916,30 @@
       <c r="K17" s="5">
         <v>110002</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L17" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B18" s="7"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D18" s="5">
         <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
       </c>
       <c r="G18" s="5">
-        <v>203</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>35</v>
+        <v>202</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I18" s="10">
         <v>400400400400400</v>
@@ -1388,64 +1950,64 @@
       <c r="K18" s="5">
         <v>110002</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L18" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B19" s="7"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>2301</v>
+        <v>2206</v>
       </c>
       <c r="D19" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5">
-        <v>101</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>36</v>
+        <v>203</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="I19" s="10">
-        <v>600600600600600</v>
+        <v>400400400400400</v>
       </c>
       <c r="J19" s="8">
         <v>2</v>
       </c>
       <c r="K19" s="5">
-        <v>110003</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110002</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B20" s="7"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D20" s="5">
         <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
       </c>
       <c r="G20" s="5">
-        <v>102</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>36</v>
+        <v>101</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="I20" s="10">
         <v>600600600600600</v>
@@ -1456,29 +2018,29 @@
       <c r="K20" s="5">
         <v>110003</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L20" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B21" s="7"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D21" s="5">
         <v>45</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>103</v>
-      </c>
-      <c r="H21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="10">
@@ -1490,30 +2052,30 @@
       <c r="K21" s="5">
         <v>110003</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L21" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B22" s="7"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D22" s="5">
         <v>45</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5">
-        <v>201</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="I22" s="10">
         <v>600600600600600</v>
@@ -1524,30 +2086,30 @@
       <c r="K22" s="5">
         <v>110003</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L22" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B23" s="7"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D23" s="5">
         <v>45</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F23" s="5">
         <v>2</v>
       </c>
       <c r="G23" s="5">
-        <v>202</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>39</v>
+        <v>201</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="I23" s="10">
         <v>600600600600600</v>
@@ -1558,30 +2120,30 @@
       <c r="K23" s="5">
         <v>110003</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L23" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B24" s="7"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D24" s="5">
         <v>45</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
       </c>
       <c r="G24" s="5">
-        <v>203</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>40</v>
+        <v>202</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="I24" s="10">
         <v>600600600600600</v>
@@ -1592,64 +2154,64 @@
       <c r="K24" s="5">
         <v>110003</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L24" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B25" s="7"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>2401</v>
+        <v>2306</v>
       </c>
       <c r="D25" s="5">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="5">
-        <v>101</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>41</v>
+        <v>203</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="I25" s="10">
-        <v>800800800800800</v>
+        <v>600600600600600</v>
       </c>
       <c r="J25" s="8">
         <v>2</v>
       </c>
       <c r="K25" s="5">
-        <v>110004</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110003</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B26" s="7"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D26" s="5">
         <v>55</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
       </c>
       <c r="G26" s="5">
-        <v>102</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="I26" s="10">
         <v>800800800800800</v>
@@ -1660,29 +2222,29 @@
       <c r="K26" s="5">
         <v>110004</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L26" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B27" s="7"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D27" s="5">
         <v>55</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
       </c>
       <c r="G27" s="5">
-        <v>103</v>
-      </c>
-      <c r="H27" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>43</v>
       </c>
       <c r="I27" s="10">
@@ -1694,30 +2256,30 @@
       <c r="K27" s="5">
         <v>110004</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L27" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B28" s="7"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D28" s="5">
         <v>55</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="5">
-        <v>201</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>44</v>
+        <v>103</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="I28" s="10">
         <v>800800800800800</v>
@@ -1728,30 +2290,30 @@
       <c r="K28" s="5">
         <v>110004</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L28" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B29" s="7"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D29" s="5">
         <v>55</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F29" s="5">
         <v>2</v>
       </c>
       <c r="G29" s="5">
-        <v>202</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>44</v>
+        <v>201</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="I29" s="10">
         <v>800800800800800</v>
@@ -1762,30 +2324,30 @@
       <c r="K29" s="5">
         <v>110004</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L29" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B30" s="7"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D30" s="5">
         <v>55</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="5">
         <v>2</v>
       </c>
       <c r="G30" s="5">
-        <v>203</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>45</v>
+        <v>202</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="I30" s="10">
         <v>800800800800800</v>
@@ -1796,67 +2358,67 @@
       <c r="K30" s="5">
         <v>110004</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L30" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B31" s="7"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>2501</v>
+        <v>2406</v>
       </c>
       <c r="D31" s="5">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F31" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="5">
-        <v>101</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>46</v>
+        <v>203</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="10">
+        <v>800800800800800</v>
       </c>
       <c r="J31" s="8">
         <v>2</v>
       </c>
       <c r="K31" s="5">
-        <v>110005</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110004</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B32" s="7"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D32" s="5">
         <v>60</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
       </c>
       <c r="G32" s="5">
-        <v>102</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>46</v>
+        <v>101</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="J32" s="8">
         <v>2</v>
@@ -1864,33 +2426,33 @@
       <c r="K32" s="5">
         <v>110005</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L32" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B33" s="7"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D33" s="5">
         <v>60</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
       </c>
       <c r="G33" s="5">
-        <v>103</v>
-      </c>
-      <c r="H33" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="14" t="s">
-        <v>46</v>
+      <c r="I33" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="J33" s="8">
         <v>2</v>
@@ -1898,33 +2460,33 @@
       <c r="K33" s="5">
         <v>110005</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L33" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B34" s="7"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D34" s="5">
         <v>60</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F34" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="5">
-        <v>201</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>46</v>
+        <v>103</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="J34" s="8">
         <v>2</v>
@@ -1932,33 +2494,33 @@
       <c r="K34" s="5">
         <v>110005</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L34" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B35" s="7"/>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D35" s="5">
         <v>60</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F35" s="5">
         <v>2</v>
       </c>
       <c r="G35" s="5">
-        <v>202</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>46</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="J35" s="8">
         <v>2</v>
@@ -1966,33 +2528,33 @@
       <c r="K35" s="5">
         <v>110005</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L35" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B36" s="7"/>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D36" s="5">
         <v>60</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F36" s="5">
         <v>2</v>
       </c>
       <c r="G36" s="5">
-        <v>203</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>46</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="J36" s="8">
         <v>2</v>
@@ -2000,60 +2562,63 @@
       <c r="K36" s="5">
         <v>110005</v>
       </c>
-      <c r="L36" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L36" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B37" s="7"/>
       <c r="C37" s="5">
-        <v>3001</v>
+        <f t="shared" si="0"/>
+        <v>2506</v>
       </c>
       <c r="D37" s="5">
-        <v>20</v>
-      </c>
-      <c r="E37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2</v>
+      </c>
+      <c r="G37" s="5">
+        <v>203</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5">
-        <v>101</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="10">
-        <v>300300300300300</v>
-      </c>
-      <c r="J37" s="5">
-        <v>3</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="15" t="s">
+      <c r="J37" s="8">
+        <v>2</v>
+      </c>
+      <c r="K37" s="5">
+        <v>110005</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B38" s="7"/>
       <c r="C38" s="5">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D38" s="5">
         <v>20</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
       </c>
       <c r="G38" s="5">
-        <v>102</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>26</v>
+        <v>101</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="I38" s="10">
         <v>300300300300300</v>
@@ -2062,28 +2627,28 @@
         <v>3</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L38" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B39" s="7"/>
       <c r="C39" s="5">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D39" s="5">
         <v>20</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
       </c>
       <c r="G39" s="5">
-        <v>103</v>
-      </c>
-      <c r="H39" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="10">
@@ -2093,29 +2658,29 @@
         <v>3</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L39" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B40" s="7"/>
       <c r="C40" s="5">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D40" s="5">
         <v>20</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F40" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="5">
-        <v>201</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>29</v>
+        <v>103</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="I40" s="10">
         <v>300300300300300</v>
@@ -2124,29 +2689,29 @@
         <v>3</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L40" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B41" s="7"/>
       <c r="C41" s="5">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="D41" s="5">
         <v>20</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
       </c>
       <c r="G41" s="5">
-        <v>202</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>29</v>
+        <v>201</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I41" s="10">
         <v>300300300300300</v>
@@ -2155,29 +2720,29 @@
         <v>3</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L41" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B42" s="7"/>
       <c r="C42" s="5">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="D42" s="5">
         <v>20</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F42" s="5">
         <v>2</v>
       </c>
       <c r="G42" s="5">
-        <v>203</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>30</v>
+        <v>202</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I42" s="10">
         <v>300300300300300</v>
@@ -2186,60 +2751,60 @@
         <v>3</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L42" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B43" s="7"/>
       <c r="C43" s="5">
-        <v>3051</v>
+        <v>3006</v>
       </c>
       <c r="D43" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F43" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="5">
-        <v>101</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>31</v>
+        <v>203</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="I43" s="10">
-        <v>900900900900900</v>
+        <v>300300300300300</v>
       </c>
       <c r="J43" s="5">
         <v>3</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L43" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B44" s="7"/>
       <c r="C44" s="5">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D44" s="5">
         <v>30</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
       </c>
       <c r="G44" s="5">
-        <v>102</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I44" s="10">
         <v>900900900900900</v>
@@ -2248,28 +2813,28 @@
         <v>3</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L44" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B45" s="7"/>
       <c r="C45" s="5">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D45" s="5">
         <v>30</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
       </c>
       <c r="G45" s="5">
-        <v>103</v>
-      </c>
-      <c r="H45" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I45" s="10">
@@ -2279,29 +2844,29 @@
         <v>3</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L45" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B46" s="7"/>
       <c r="C46" s="5">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D46" s="5">
         <v>30</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F46" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="5">
-        <v>201</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>34</v>
+        <v>103</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="I46" s="10">
         <v>900900900900900</v>
@@ -2310,29 +2875,29 @@
         <v>3</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L46" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B47" s="7"/>
       <c r="C47" s="5">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="D47" s="5">
         <v>30</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47" s="5">
         <v>2</v>
       </c>
       <c r="G47" s="5">
-        <v>202</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>34</v>
+        <v>201</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I47" s="10">
         <v>900900900900900</v>
@@ -2341,29 +2906,29 @@
         <v>3</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L47" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B48" s="7"/>
       <c r="C48" s="5">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D48" s="5">
         <v>30</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F48" s="5">
         <v>2</v>
       </c>
       <c r="G48" s="5">
-        <v>203</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>35</v>
+        <v>202</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I48" s="10">
         <v>900900900900900</v>
@@ -2372,63 +2937,63 @@
         <v>3</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L48" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B49" s="7"/>
       <c r="C49" s="5">
-        <v>5101</v>
+        <v>3056</v>
       </c>
       <c r="D49" s="5">
-        <v>20</v>
-      </c>
-      <c r="E49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5">
+        <v>203</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" s="10">
+        <v>900900900900900</v>
+      </c>
+      <c r="J49" s="5">
+        <v>3</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="5">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5">
-        <v>101</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" s="5">
-        <v>4</v>
-      </c>
-      <c r="K49" s="11">
-        <v>72000002</v>
-      </c>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B50" s="7"/>
       <c r="C50" s="5">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="D50" s="5">
         <v>20</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F50" s="5">
         <v>1</v>
       </c>
       <c r="G50" s="5">
-        <v>102</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>26</v>
+        <v>101</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J50" s="5">
         <v>4</v>
@@ -2438,28 +3003,28 @@
       </c>
       <c r="L50" s="11"/>
     </row>
-    <row r="51" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B51" s="7"/>
       <c r="C51" s="5">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="D51" s="5">
         <v>20</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F51" s="5">
         <v>1</v>
       </c>
       <c r="G51" s="5">
-        <v>103</v>
-      </c>
-      <c r="H51" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J51" s="5">
         <v>4</v>
@@ -2469,28 +3034,28 @@
       </c>
       <c r="L51" s="11"/>
     </row>
-    <row r="52" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B52" s="7"/>
       <c r="C52" s="5">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="D52" s="5">
         <v>20</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F52" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="5">
-        <v>201</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>29</v>
+        <v>103</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J52" s="5">
         <v>4</v>
@@ -2500,28 +3065,28 @@
       </c>
       <c r="L52" s="11"/>
     </row>
-    <row r="53" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B53" s="7"/>
       <c r="C53" s="5">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="D53" s="5">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F53" s="5">
         <v>2</v>
       </c>
       <c r="G53" s="5">
-        <v>202</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>29</v>
+        <v>201</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J53" s="5">
         <v>4</v>
@@ -2531,28 +3096,28 @@
       </c>
       <c r="L53" s="11"/>
     </row>
-    <row r="54" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B54" s="7"/>
       <c r="C54" s="5">
-        <v>5106</v>
+        <v>5105</v>
       </c>
       <c r="D54" s="5">
         <v>20</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F54" s="5">
         <v>2</v>
       </c>
       <c r="G54" s="5">
-        <v>203</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>30</v>
+        <v>202</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J54" s="5">
         <v>4</v>
@@ -2562,56 +3127,56 @@
       </c>
       <c r="L54" s="11"/>
     </row>
-    <row r="55" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B55" s="7"/>
       <c r="C55" s="5">
-        <v>5201</v>
+        <v>5106</v>
       </c>
       <c r="D55" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F55" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="5">
-        <v>101</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="10">
-        <v>100100100100100</v>
+        <v>203</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="J55" s="5">
         <v>4</v>
       </c>
       <c r="K55" s="11">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B56" s="7"/>
       <c r="C56" s="5">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="D56" s="5">
         <v>35</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F56" s="5">
         <v>1</v>
       </c>
       <c r="G56" s="5">
-        <v>102</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I56" s="10">
         <v>100100100100100</v>
@@ -2624,24 +3189,24 @@
       </c>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B57" s="7"/>
       <c r="C57" s="5">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="D57" s="5">
         <v>35</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
       </c>
       <c r="G57" s="5">
-        <v>103</v>
-      </c>
-      <c r="H57" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I57" s="10">
@@ -2655,25 +3220,25 @@
       </c>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B58" s="7"/>
       <c r="C58" s="5">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="D58" s="5">
         <v>35</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F58" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="5">
-        <v>201</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>34</v>
+        <v>103</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="I58" s="10">
         <v>100100100100100</v>
@@ -2686,25 +3251,25 @@
       </c>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B59" s="7"/>
       <c r="C59" s="5">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="D59" s="5">
         <v>35</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F59" s="5">
         <v>2</v>
       </c>
       <c r="G59" s="5">
-        <v>202</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>34</v>
+        <v>201</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I59" s="10">
         <v>100100100100100</v>
@@ -2717,25 +3282,25 @@
       </c>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B60" s="7"/>
       <c r="C60" s="5">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="D60" s="5">
         <v>35</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F60" s="5">
         <v>2</v>
       </c>
       <c r="G60" s="5">
-        <v>203</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>35</v>
+        <v>202</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I60" s="10">
         <v>100100100100100</v>
@@ -2748,56 +3313,56 @@
       </c>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B61" s="7"/>
       <c r="C61" s="5">
-        <v>5301</v>
+        <v>5206</v>
       </c>
       <c r="D61" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F61" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="5">
-        <v>101</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>36</v>
+        <v>203</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="I61" s="10">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J61" s="5">
         <v>4</v>
       </c>
       <c r="K61" s="11">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B62" s="7"/>
       <c r="C62" s="5">
-        <v>5302</v>
+        <v>5301</v>
       </c>
       <c r="D62" s="5">
         <v>45</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
       </c>
       <c r="G62" s="5">
-        <v>102</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>36</v>
+        <v>101</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="I62" s="10">
         <v>150150150150150</v>
@@ -2810,24 +3375,24 @@
       </c>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B63" s="7"/>
       <c r="C63" s="5">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="D63" s="5">
         <v>45</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F63" s="5">
         <v>1</v>
       </c>
       <c r="G63" s="5">
-        <v>103</v>
-      </c>
-      <c r="H63" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I63" s="10">
@@ -2841,25 +3406,25 @@
       </c>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B64" s="7"/>
       <c r="C64" s="5">
-        <v>5304</v>
+        <v>5303</v>
       </c>
       <c r="D64" s="5">
         <v>45</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F64" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="5">
-        <v>201</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="I64" s="10">
         <v>150150150150150</v>
@@ -2872,25 +3437,25 @@
       </c>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B65" s="7"/>
       <c r="C65" s="5">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="D65" s="5">
         <v>45</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F65" s="5">
         <v>2</v>
       </c>
       <c r="G65" s="5">
-        <v>202</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>39</v>
+        <v>201</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="I65" s="10">
         <v>150150150150150</v>
@@ -2903,25 +3468,25 @@
       </c>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B66" s="7"/>
       <c r="C66" s="5">
-        <v>5306</v>
+        <v>5305</v>
       </c>
       <c r="D66" s="5">
         <v>45</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F66" s="5">
         <v>2</v>
       </c>
       <c r="G66" s="5">
-        <v>203</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>40</v>
+        <v>202</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="I66" s="10">
         <v>150150150150150</v>
@@ -2934,56 +3499,56 @@
       </c>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B67" s="7"/>
       <c r="C67" s="5">
-        <v>5401</v>
+        <v>5306</v>
       </c>
       <c r="D67" s="5">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F67" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="5">
-        <v>101</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>41</v>
+        <v>203</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="I67" s="10">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J67" s="5">
         <v>4</v>
       </c>
       <c r="K67" s="11">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B68" s="7"/>
       <c r="C68" s="5">
-        <v>5402</v>
+        <v>5401</v>
       </c>
       <c r="D68" s="5">
         <v>55</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F68" s="5">
         <v>1</v>
       </c>
       <c r="G68" s="5">
-        <v>102</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="I68" s="10">
         <v>200200200200200</v>
@@ -2996,24 +3561,24 @@
       </c>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B69" s="7"/>
       <c r="C69" s="5">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="D69" s="5">
         <v>55</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F69" s="5">
         <v>1</v>
       </c>
       <c r="G69" s="5">
-        <v>103</v>
-      </c>
-      <c r="H69" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" s="13" t="s">
         <v>43</v>
       </c>
       <c r="I69" s="10">
@@ -3027,25 +3592,25 @@
       </c>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B70" s="7"/>
       <c r="C70" s="5">
-        <v>5404</v>
+        <v>5403</v>
       </c>
       <c r="D70" s="5">
         <v>55</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F70" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="5">
-        <v>201</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>44</v>
+        <v>103</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="I70" s="10">
         <v>200200200200200</v>
@@ -3058,25 +3623,25 @@
       </c>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B71" s="7"/>
       <c r="C71" s="5">
-        <v>5405</v>
+        <v>5404</v>
       </c>
       <c r="D71" s="5">
         <v>55</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F71" s="5">
         <v>2</v>
       </c>
       <c r="G71" s="5">
-        <v>202</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>44</v>
+        <v>201</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="I71" s="10">
         <v>200200200200200</v>
@@ -3089,25 +3654,25 @@
       </c>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B72" s="7"/>
       <c r="C72" s="5">
-        <v>5406</v>
+        <v>5405</v>
       </c>
       <c r="D72" s="5">
         <v>55</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F72" s="5">
         <v>2</v>
       </c>
       <c r="G72" s="5">
-        <v>203</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>45</v>
+        <v>202</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="I72" s="10">
         <v>200200200200200</v>
@@ -3120,15 +3685,15 @@
       </c>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B73" s="7"/>
       <c r="C73" s="5">
-        <v>5001</v>
+        <v>5406</v>
       </c>
       <c r="D73" s="5">
-        <v>30</v>
-      </c>
-      <c r="E73" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F73" s="5">
@@ -3137,77 +3702,81 @@
       <c r="G73" s="5">
         <v>203</v>
       </c>
-      <c r="H73" s="12" t="s">
-        <v>35</v>
+      <c r="H73" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="I73" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J73" s="5">
+        <v>4</v>
+      </c>
+      <c r="K73" s="11">
+        <v>72000005</v>
+      </c>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="B74" s="7"/>
+      <c r="C74" s="5">
+        <v>5001</v>
+      </c>
+      <c r="D74" s="5">
+        <v>30</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="5">
+        <v>2</v>
+      </c>
+      <c r="G74" s="5">
+        <v>203</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" s="10">
         <v>100100100100100</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J74" s="5">
         <v>5</v>
       </c>
-      <c r="K73" s="5"/>
-      <c r="L73" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="5">
+      <c r="K74" s="5"/>
+      <c r="L74" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C75" s="5">
         <v>6001</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D75" s="5">
         <v>40</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F74" s="3">
-        <v>2</v>
-      </c>
-      <c r="G74" s="3">
+      <c r="E75" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3">
         <v>203</v>
       </c>
-      <c r="H74" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I74" s="10">
+      <c r="H75" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" s="10">
         <v>200200200200200</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J75" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="7"/>
-      <c r="C75" s="5">
-        <v>7001</v>
-      </c>
-      <c r="D75" s="5">
-        <v>20</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F75" s="5">
-        <v>1</v>
-      </c>
-      <c r="G75" s="5">
-        <v>0</v>
-      </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J75" s="8">
-        <v>7</v>
-      </c>
-      <c r="K75" s="5"/>
-      <c r="L75" s="9"/>
-    </row>
-    <row r="76" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B76" s="7"/>
       <c r="C76" s="5">
-        <v>8001</v>
+        <v>7001</v>
       </c>
       <c r="D76" s="5">
         <v>20</v>
@@ -3223,24 +3792,24 @@
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J76" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K76" s="5"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B77" s="7"/>
       <c r="C77" s="5">
-        <v>9001</v>
+        <v>8001</v>
       </c>
       <c r="D77" s="5">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F77" s="5">
         <v>1</v>
@@ -3248,30 +3817,26 @@
       <c r="G77" s="5">
         <v>0</v>
       </c>
-      <c r="H77" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="H77" s="5"/>
       <c r="I77" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J77" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B78" s="7"/>
       <c r="C78" s="5">
-        <v>10001</v>
+        <v>9001</v>
       </c>
       <c r="D78" s="5">
         <v>55</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F78" s="5">
         <v>1</v>
@@ -3279,24 +3844,55 @@
       <c r="G78" s="5">
         <v>0</v>
       </c>
-      <c r="H78" s="12" t="s">
-        <v>44</v>
+      <c r="H78" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J78" s="8">
+        <v>9</v>
+      </c>
+      <c r="K78" s="5"/>
+      <c r="L78" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="B79" s="7"/>
+      <c r="C79" s="5">
+        <v>10001</v>
+      </c>
+      <c r="D79" s="5">
+        <v>55</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="5">
+        <v>1</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" s="8">
         <v>10</v>
       </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="13" t="s">
-        <v>59</v>
+      <c r="K79" s="5"/>
+      <c r="L79" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/RobotConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RobotConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="809"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="56">
   <si>
     <t>cs</t>
   </si>
@@ -224,7 +224,7 @@
     <t>15201002,15202002,15203002,15203002,15204002,15205002,15206002,15207002,15208002,15209002,15210102,15211002</t>
   </si>
   <si>
-    <t>90.81;0;66.18;1</t>
+    <t>17.52;0;-12.5;1</t>
   </si>
   <si>
     <t>15201006,15202006,15203006,15203006,15204006,15205006,15206002,15207002,15208002,15209002,15210002,15211006</t>
@@ -239,9 +239,6 @@
     <t>15301002,15302002,15303002,15303002,15304002,15305002,15306002,15307002,15308002,15309002,15310102,15311002</t>
   </si>
   <si>
-    <t>69.33;0.3;61.19;1</t>
-  </si>
-  <si>
     <t>15301006,15302006,15303006,15303006,15304006,15305006,15306002,15307002,15308002,15309002,15310002,15311006</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t>15401002,15402002,15403002,15403002,15404002,15405002,15406002,15407002,15408002,15409002,15410102,15411002</t>
   </si>
   <si>
-    <t>108.93;0;178.8;1</t>
-  </si>
-  <si>
     <t>15401006,15402006,15403006,15403006,15404006,15405006,15406002,15407002,15408002,15409002,15410002,15411006</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>15501002,15502002,15503002,15503002,15504002,15505002,15506002,15507002,15508002,15509002,15510102,15511002</t>
   </si>
   <si>
-    <t>72.48;0;0.34;1</t>
-  </si>
-  <si>
     <t>15501006,15502006,15503006,15503006,15504006,15505006,15506002,15507002,15508002,15509002,15510002,15511006</t>
   </si>
   <si>
@@ -284,15 +275,9 @@
     <t>1000,1000,1000,1000,1000</t>
   </si>
   <si>
-    <t>-87.50,0.00,-27.62;1</t>
-  </si>
-  <si>
     <t>1-30级战场机器人</t>
   </si>
   <si>
-    <t>-9.96;0.34;-1.8;2@10.03;0.34;43.8;3@9.67;0.34;-43.9;3@9.67;0.34;-43.9;3@-23.1;0.34;-38.1;3@-31.5;0.34;30.7;3@49.2;0.34;31.9;3@50.96;0.34;-34.8;3</t>
-  </si>
-  <si>
     <t>30-60级战场机器人</t>
   </si>
   <si>
@@ -317,13 +302,7 @@
     <t>奔跑大赛机器人</t>
   </si>
   <si>
-    <t>-11.36;0.98;45.02;2</t>
-  </si>
-  <si>
     <t>恶魔活动机器人</t>
-  </si>
-  <si>
-    <t>12.70;0.98;-44.76;2</t>
   </si>
 </sst>
 </file>
@@ -336,7 +315,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +325,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -521,12 +493,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -877,183 +849,177 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1378,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="G59" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1603,7 +1569,7 @@
       <c r="G8" s="5">
         <v>101</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="10">
@@ -1615,7 +1581,7 @@
       <c r="K8" s="5">
         <v>110001</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1636,7 +1602,7 @@
       <c r="G9" s="5">
         <v>102</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="10">
@@ -1648,7 +1614,7 @@
       <c r="K9" s="5">
         <v>110001</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1669,7 +1635,7 @@
       <c r="G10" s="5">
         <v>103</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="10">
@@ -1681,7 +1647,7 @@
       <c r="K10" s="5">
         <v>110001</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1702,7 +1668,7 @@
       <c r="G11" s="5">
         <v>201</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="10">
@@ -1714,7 +1680,7 @@
       <c r="K11" s="5">
         <v>110001</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1735,7 +1701,7 @@
       <c r="G12" s="5">
         <v>202</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="10">
@@ -1747,7 +1713,7 @@
       <c r="K12" s="5">
         <v>110001</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1768,7 +1734,7 @@
       <c r="G13" s="5">
         <v>203</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="10">
@@ -1780,7 +1746,7 @@
       <c r="K13" s="5">
         <v>110001</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1802,7 +1768,7 @@
       <c r="G14" s="5">
         <v>101</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>33</v>
       </c>
       <c r="I14" s="10">
@@ -1814,8 +1780,8 @@
       <c r="K14" s="5">
         <v>110002</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>34</v>
+      <c r="L14" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -1836,7 +1802,7 @@
       <c r="G15" s="5">
         <v>102</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="10">
@@ -1848,8 +1814,8 @@
       <c r="K15" s="5">
         <v>110002</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>34</v>
+      <c r="L15" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -1870,8 +1836,8 @@
       <c r="G16" s="5">
         <v>103</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>35</v>
+      <c r="H16" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I16" s="10">
         <v>400400400400400</v>
@@ -1882,8 +1848,8 @@
       <c r="K16" s="5">
         <v>110002</v>
       </c>
-      <c r="L16" s="14" t="s">
-        <v>34</v>
+      <c r="L16" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -1904,8 +1870,8 @@
       <c r="G17" s="5">
         <v>201</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>36</v>
+      <c r="H17" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I17" s="10">
         <v>400400400400400</v>
@@ -1916,8 +1882,8 @@
       <c r="K17" s="5">
         <v>110002</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>34</v>
+      <c r="L17" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -1938,8 +1904,8 @@
       <c r="G18" s="5">
         <v>202</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>36</v>
+      <c r="H18" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I18" s="10">
         <v>400400400400400</v>
@@ -1950,8 +1916,8 @@
       <c r="K18" s="5">
         <v>110002</v>
       </c>
-      <c r="L18" s="14" t="s">
-        <v>34</v>
+      <c r="L18" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -1972,8 +1938,8 @@
       <c r="G19" s="5">
         <v>203</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>37</v>
+      <c r="H19" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="I19" s="10">
         <v>400400400400400</v>
@@ -1984,8 +1950,8 @@
       <c r="K19" s="5">
         <v>110002</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>34</v>
+      <c r="L19" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2006,8 +1972,8 @@
       <c r="G20" s="5">
         <v>101</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>38</v>
+      <c r="H20" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="I20" s="10">
         <v>600600600600600</v>
@@ -2018,8 +1984,8 @@
       <c r="K20" s="5">
         <v>110003</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>39</v>
+      <c r="L20" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2040,8 +2006,8 @@
       <c r="G21" s="5">
         <v>102</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>38</v>
+      <c r="H21" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="I21" s="10">
         <v>600600600600600</v>
@@ -2052,8 +2018,8 @@
       <c r="K21" s="5">
         <v>110003</v>
       </c>
-      <c r="L21" s="14" t="s">
-        <v>39</v>
+      <c r="L21" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2074,8 +2040,8 @@
       <c r="G22" s="5">
         <v>103</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>40</v>
+      <c r="H22" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="I22" s="10">
         <v>600600600600600</v>
@@ -2086,8 +2052,8 @@
       <c r="K22" s="5">
         <v>110003</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>39</v>
+      <c r="L22" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2108,8 +2074,8 @@
       <c r="G23" s="5">
         <v>201</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>41</v>
+      <c r="H23" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I23" s="10">
         <v>600600600600600</v>
@@ -2120,8 +2086,8 @@
       <c r="K23" s="5">
         <v>110003</v>
       </c>
-      <c r="L23" s="14" t="s">
-        <v>39</v>
+      <c r="L23" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2142,8 +2108,8 @@
       <c r="G24" s="5">
         <v>202</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>41</v>
+      <c r="H24" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I24" s="10">
         <v>600600600600600</v>
@@ -2154,8 +2120,8 @@
       <c r="K24" s="5">
         <v>110003</v>
       </c>
-      <c r="L24" s="14" t="s">
-        <v>39</v>
+      <c r="L24" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2176,8 +2142,8 @@
       <c r="G25" s="5">
         <v>203</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>42</v>
+      <c r="H25" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="I25" s="10">
         <v>600600600600600</v>
@@ -2188,8 +2154,8 @@
       <c r="K25" s="5">
         <v>110003</v>
       </c>
-      <c r="L25" s="14" t="s">
-        <v>39</v>
+      <c r="L25" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2210,8 +2176,8 @@
       <c r="G26" s="5">
         <v>101</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>43</v>
+      <c r="H26" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="I26" s="10">
         <v>800800800800800</v>
@@ -2222,8 +2188,8 @@
       <c r="K26" s="5">
         <v>110004</v>
       </c>
-      <c r="L26" s="14" t="s">
-        <v>44</v>
+      <c r="L26" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2244,8 +2210,8 @@
       <c r="G27" s="5">
         <v>102</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>43</v>
+      <c r="H27" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="I27" s="10">
         <v>800800800800800</v>
@@ -2256,8 +2222,8 @@
       <c r="K27" s="5">
         <v>110004</v>
       </c>
-      <c r="L27" s="14" t="s">
-        <v>44</v>
+      <c r="L27" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2278,8 +2244,8 @@
       <c r="G28" s="5">
         <v>103</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>45</v>
+      <c r="H28" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="I28" s="10">
         <v>800800800800800</v>
@@ -2290,8 +2256,8 @@
       <c r="K28" s="5">
         <v>110004</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>44</v>
+      <c r="L28" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2312,8 +2278,8 @@
       <c r="G29" s="5">
         <v>201</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>46</v>
+      <c r="H29" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I29" s="10">
         <v>800800800800800</v>
@@ -2324,8 +2290,8 @@
       <c r="K29" s="5">
         <v>110004</v>
       </c>
-      <c r="L29" s="14" t="s">
-        <v>44</v>
+      <c r="L29" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2346,8 +2312,8 @@
       <c r="G30" s="5">
         <v>202</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>46</v>
+      <c r="H30" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I30" s="10">
         <v>800800800800800</v>
@@ -2358,8 +2324,8 @@
       <c r="K30" s="5">
         <v>110004</v>
       </c>
-      <c r="L30" s="14" t="s">
-        <v>44</v>
+      <c r="L30" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2380,8 +2346,8 @@
       <c r="G31" s="5">
         <v>203</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>47</v>
+      <c r="H31" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="I31" s="10">
         <v>800800800800800</v>
@@ -2392,8 +2358,8 @@
       <c r="K31" s="5">
         <v>110004</v>
       </c>
-      <c r="L31" s="14" t="s">
-        <v>44</v>
+      <c r="L31" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2414,11 +2380,11 @@
       <c r="G32" s="5">
         <v>101</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>48</v>
+      <c r="H32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="J32" s="8">
         <v>2</v>
@@ -2426,8 +2392,8 @@
       <c r="K32" s="5">
         <v>110005</v>
       </c>
-      <c r="L32" s="14" t="s">
-        <v>49</v>
+      <c r="L32" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2448,11 +2414,11 @@
       <c r="G33" s="5">
         <v>102</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>48</v>
+      <c r="H33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="J33" s="8">
         <v>2</v>
@@ -2460,8 +2426,8 @@
       <c r="K33" s="5">
         <v>110005</v>
       </c>
-      <c r="L33" s="14" t="s">
-        <v>49</v>
+      <c r="L33" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2482,11 +2448,11 @@
       <c r="G34" s="5">
         <v>103</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="J34" s="8">
         <v>2</v>
@@ -2494,8 +2460,8 @@
       <c r="K34" s="5">
         <v>110005</v>
       </c>
-      <c r="L34" s="14" t="s">
-        <v>49</v>
+      <c r="L34" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2516,11 +2482,11 @@
       <c r="G35" s="5">
         <v>201</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>48</v>
+      <c r="H35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="J35" s="8">
         <v>2</v>
@@ -2528,8 +2494,8 @@
       <c r="K35" s="5">
         <v>110005</v>
       </c>
-      <c r="L35" s="14" t="s">
-        <v>49</v>
+      <c r="L35" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2550,11 +2516,11 @@
       <c r="G36" s="5">
         <v>202</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>48</v>
+      <c r="H36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="J36" s="8">
         <v>2</v>
@@ -2562,8 +2528,8 @@
       <c r="K36" s="5">
         <v>110005</v>
       </c>
-      <c r="L36" s="14" t="s">
-        <v>49</v>
+      <c r="L36" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2584,11 +2550,11 @@
       <c r="G37" s="5">
         <v>203</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>48</v>
+      <c r="H37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="J37" s="8">
         <v>2</v>
@@ -2596,8 +2562,8 @@
       <c r="K37" s="5">
         <v>110005</v>
       </c>
-      <c r="L37" s="14" t="s">
-        <v>49</v>
+      <c r="L37" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2609,7 +2575,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
@@ -2617,7 +2583,7 @@
       <c r="G38" s="5">
         <v>101</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I38" s="10">
@@ -2627,8 +2593,8 @@
         <v>3</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="16" t="s">
-        <v>51</v>
+      <c r="L38" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2640,7 +2606,7 @@
         <v>20</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
@@ -2648,7 +2614,7 @@
       <c r="G39" s="5">
         <v>102</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="10">
@@ -2658,8 +2624,8 @@
         <v>3</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="16" t="s">
-        <v>51</v>
+      <c r="L39" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2671,7 +2637,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F40" s="5">
         <v>1</v>
@@ -2679,7 +2645,7 @@
       <c r="G40" s="5">
         <v>103</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="10">
@@ -2689,8 +2655,8 @@
         <v>3</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="16" t="s">
-        <v>51</v>
+      <c r="L40" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2702,7 +2668,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
@@ -2710,7 +2676,7 @@
       <c r="G41" s="5">
         <v>201</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I41" s="10">
@@ -2720,8 +2686,8 @@
         <v>3</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="16" t="s">
-        <v>51</v>
+      <c r="L41" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2733,7 +2699,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F42" s="5">
         <v>2</v>
@@ -2741,7 +2707,7 @@
       <c r="G42" s="5">
         <v>202</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I42" s="10">
@@ -2751,8 +2717,8 @@
         <v>3</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="16" t="s">
-        <v>51</v>
+      <c r="L42" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2764,7 +2730,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F43" s="5">
         <v>2</v>
@@ -2772,7 +2738,7 @@
       <c r="G43" s="5">
         <v>203</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I43" s="10">
@@ -2782,8 +2748,8 @@
         <v>3</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="16" t="s">
-        <v>51</v>
+      <c r="L43" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2795,7 +2761,7 @@
         <v>30</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
@@ -2803,7 +2769,7 @@
       <c r="G44" s="5">
         <v>101</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="12" t="s">
         <v>33</v>
       </c>
       <c r="I44" s="10">
@@ -2813,8 +2779,8 @@
         <v>3</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="16" t="s">
-        <v>51</v>
+      <c r="L44" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2826,7 +2792,7 @@
         <v>30</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2834,7 +2800,7 @@
       <c r="G45" s="5">
         <v>102</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="12" t="s">
         <v>33</v>
       </c>
       <c r="I45" s="10">
@@ -2844,8 +2810,8 @@
         <v>3</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="16" t="s">
-        <v>51</v>
+      <c r="L45" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2857,7 +2823,7 @@
         <v>30</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F46" s="5">
         <v>1</v>
@@ -2865,8 +2831,8 @@
       <c r="G46" s="5">
         <v>103</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>35</v>
+      <c r="H46" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I46" s="10">
         <v>900900900900900</v>
@@ -2875,8 +2841,8 @@
         <v>3</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="16" t="s">
-        <v>51</v>
+      <c r="L46" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2888,7 +2854,7 @@
         <v>30</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F47" s="5">
         <v>2</v>
@@ -2896,8 +2862,8 @@
       <c r="G47" s="5">
         <v>201</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>36</v>
+      <c r="H47" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I47" s="10">
         <v>900900900900900</v>
@@ -2906,8 +2872,8 @@
         <v>3</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="16" t="s">
-        <v>51</v>
+      <c r="L47" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2919,7 +2885,7 @@
         <v>30</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F48" s="5">
         <v>2</v>
@@ -2927,8 +2893,8 @@
       <c r="G48" s="5">
         <v>202</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>36</v>
+      <c r="H48" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I48" s="10">
         <v>900900900900900</v>
@@ -2937,8 +2903,8 @@
         <v>3</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="16" t="s">
-        <v>51</v>
+      <c r="L48" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2950,7 +2916,7 @@
         <v>30</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F49" s="5">
         <v>2</v>
@@ -2958,8 +2924,8 @@
       <c r="G49" s="5">
         <v>203</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>37</v>
+      <c r="H49" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="I49" s="10">
         <v>900900900900900</v>
@@ -2968,8 +2934,8 @@
         <v>3</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="16" t="s">
-        <v>51</v>
+      <c r="L49" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -2981,7 +2947,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F50" s="5">
         <v>1</v>
@@ -2989,11 +2955,11 @@
       <c r="G50" s="5">
         <v>101</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J50" s="5">
         <v>4</v>
@@ -3001,7 +2967,9 @@
       <c r="K50" s="11">
         <v>72000002</v>
       </c>
-      <c r="L50" s="11"/>
+      <c r="L50" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B51" s="7"/>
@@ -3012,7 +2980,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F51" s="5">
         <v>1</v>
@@ -3020,11 +2988,11 @@
       <c r="G51" s="5">
         <v>102</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J51" s="5">
         <v>4</v>
@@ -3032,7 +3000,9 @@
       <c r="K51" s="11">
         <v>72000002</v>
       </c>
-      <c r="L51" s="11"/>
+      <c r="L51" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B52" s="7"/>
@@ -3043,7 +3013,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F52" s="5">
         <v>1</v>
@@ -3051,11 +3021,11 @@
       <c r="G52" s="5">
         <v>103</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J52" s="5">
         <v>4</v>
@@ -3063,7 +3033,9 @@
       <c r="K52" s="11">
         <v>72000002</v>
       </c>
-      <c r="L52" s="11"/>
+      <c r="L52" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B53" s="7"/>
@@ -3074,7 +3046,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F53" s="5">
         <v>2</v>
@@ -3082,11 +3054,11 @@
       <c r="G53" s="5">
         <v>201</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J53" s="5">
         <v>4</v>
@@ -3105,7 +3077,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F54" s="5">
         <v>2</v>
@@ -3113,11 +3085,11 @@
       <c r="G54" s="5">
         <v>202</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J54" s="5">
         <v>4</v>
@@ -3136,7 +3108,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F55" s="5">
         <v>2</v>
@@ -3144,11 +3116,11 @@
       <c r="G55" s="5">
         <v>203</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J55" s="5">
         <v>4</v>
@@ -3167,7 +3139,7 @@
         <v>35</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F56" s="5">
         <v>1</v>
@@ -3175,7 +3147,7 @@
       <c r="G56" s="5">
         <v>101</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="12" t="s">
         <v>33</v>
       </c>
       <c r="I56" s="10">
@@ -3198,7 +3170,7 @@
         <v>35</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
@@ -3206,7 +3178,7 @@
       <c r="G57" s="5">
         <v>102</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="12" t="s">
         <v>33</v>
       </c>
       <c r="I57" s="10">
@@ -3229,7 +3201,7 @@
         <v>35</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F58" s="5">
         <v>1</v>
@@ -3237,8 +3209,8 @@
       <c r="G58" s="5">
         <v>103</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>35</v>
+      <c r="H58" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I58" s="10">
         <v>100100100100100</v>
@@ -3260,7 +3232,7 @@
         <v>35</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F59" s="5">
         <v>2</v>
@@ -3268,8 +3240,8 @@
       <c r="G59" s="5">
         <v>201</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>36</v>
+      <c r="H59" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I59" s="10">
         <v>100100100100100</v>
@@ -3291,7 +3263,7 @@
         <v>35</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F60" s="5">
         <v>2</v>
@@ -3299,8 +3271,8 @@
       <c r="G60" s="5">
         <v>202</v>
       </c>
-      <c r="H60" s="13" t="s">
-        <v>36</v>
+      <c r="H60" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I60" s="10">
         <v>100100100100100</v>
@@ -3322,7 +3294,7 @@
         <v>35</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F61" s="5">
         <v>2</v>
@@ -3330,8 +3302,8 @@
       <c r="G61" s="5">
         <v>203</v>
       </c>
-      <c r="H61" s="13" t="s">
-        <v>37</v>
+      <c r="H61" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="I61" s="10">
         <v>100100100100100</v>
@@ -3353,7 +3325,7 @@
         <v>45</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
@@ -3361,8 +3333,8 @@
       <c r="G62" s="5">
         <v>101</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>38</v>
+      <c r="H62" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="I62" s="10">
         <v>150150150150150</v>
@@ -3384,7 +3356,7 @@
         <v>45</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F63" s="5">
         <v>1</v>
@@ -3392,8 +3364,8 @@
       <c r="G63" s="5">
         <v>102</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>38</v>
+      <c r="H63" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="I63" s="10">
         <v>150150150150150</v>
@@ -3415,7 +3387,7 @@
         <v>45</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F64" s="5">
         <v>1</v>
@@ -3423,8 +3395,8 @@
       <c r="G64" s="5">
         <v>103</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>40</v>
+      <c r="H64" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="I64" s="10">
         <v>150150150150150</v>
@@ -3446,7 +3418,7 @@
         <v>45</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F65" s="5">
         <v>2</v>
@@ -3454,8 +3426,8 @@
       <c r="G65" s="5">
         <v>201</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>41</v>
+      <c r="H65" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I65" s="10">
         <v>150150150150150</v>
@@ -3477,7 +3449,7 @@
         <v>45</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F66" s="5">
         <v>2</v>
@@ -3485,8 +3457,8 @@
       <c r="G66" s="5">
         <v>202</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>41</v>
+      <c r="H66" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I66" s="10">
         <v>150150150150150</v>
@@ -3508,7 +3480,7 @@
         <v>45</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F67" s="5">
         <v>2</v>
@@ -3516,8 +3488,8 @@
       <c r="G67" s="5">
         <v>203</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>42</v>
+      <c r="H67" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="I67" s="10">
         <v>150150150150150</v>
@@ -3539,7 +3511,7 @@
         <v>55</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F68" s="5">
         <v>1</v>
@@ -3547,8 +3519,8 @@
       <c r="G68" s="5">
         <v>101</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>43</v>
+      <c r="H68" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="I68" s="10">
         <v>200200200200200</v>
@@ -3570,7 +3542,7 @@
         <v>55</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F69" s="5">
         <v>1</v>
@@ -3578,8 +3550,8 @@
       <c r="G69" s="5">
         <v>102</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>43</v>
+      <c r="H69" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="I69" s="10">
         <v>200200200200200</v>
@@ -3601,7 +3573,7 @@
         <v>55</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F70" s="5">
         <v>1</v>
@@ -3609,8 +3581,8 @@
       <c r="G70" s="5">
         <v>103</v>
       </c>
-      <c r="H70" s="13" t="s">
-        <v>45</v>
+      <c r="H70" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="I70" s="10">
         <v>200200200200200</v>
@@ -3632,7 +3604,7 @@
         <v>55</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F71" s="5">
         <v>2</v>
@@ -3640,8 +3612,8 @@
       <c r="G71" s="5">
         <v>201</v>
       </c>
-      <c r="H71" s="13" t="s">
-        <v>46</v>
+      <c r="H71" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I71" s="10">
         <v>200200200200200</v>
@@ -3663,7 +3635,7 @@
         <v>55</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F72" s="5">
         <v>2</v>
@@ -3671,8 +3643,8 @@
       <c r="G72" s="5">
         <v>202</v>
       </c>
-      <c r="H72" s="13" t="s">
-        <v>46</v>
+      <c r="H72" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I72" s="10">
         <v>200200200200200</v>
@@ -3694,7 +3666,7 @@
         <v>55</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F73" s="5">
         <v>2</v>
@@ -3702,8 +3674,8 @@
       <c r="G73" s="5">
         <v>203</v>
       </c>
-      <c r="H73" s="13" t="s">
-        <v>47</v>
+      <c r="H73" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="I73" s="10">
         <v>200200200200200</v>
@@ -3725,7 +3697,7 @@
         <v>30</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F74" s="5">
         <v>2</v>
@@ -3733,8 +3705,8 @@
       <c r="G74" s="5">
         <v>203</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>37</v>
+      <c r="H74" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="I74" s="10">
         <v>100100100100100</v>
@@ -3743,8 +3715,8 @@
         <v>5</v>
       </c>
       <c r="K74" s="5"/>
-      <c r="L74" s="16" t="s">
-        <v>51</v>
+      <c r="L74" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="20.1" customHeight="1" spans="3:10">
@@ -3755,7 +3727,7 @@
         <v>40</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F75" s="3">
         <v>2</v>
@@ -3763,8 +3735,8 @@
       <c r="G75" s="3">
         <v>203</v>
       </c>
-      <c r="H75" s="13" t="s">
-        <v>37</v>
+      <c r="H75" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="I75" s="10">
         <v>200200200200200</v>
@@ -3782,7 +3754,7 @@
         <v>20</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F76" s="5">
         <v>1</v>
@@ -3809,7 +3781,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F77" s="5">
         <v>1</v>
@@ -3836,7 +3808,7 @@
         <v>55</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F78" s="5">
         <v>1</v>
@@ -3844,8 +3816,8 @@
       <c r="G78" s="5">
         <v>0</v>
       </c>
-      <c r="H78" s="13" t="s">
-        <v>46</v>
+      <c r="H78" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>25</v>
@@ -3854,8 +3826,8 @@
         <v>9</v>
       </c>
       <c r="K78" s="5"/>
-      <c r="L78" s="14" t="s">
-        <v>60</v>
+      <c r="L78" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
@@ -3867,7 +3839,7 @@
         <v>55</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F79" s="5">
         <v>1</v>
@@ -3875,8 +3847,8 @@
       <c r="G79" s="5">
         <v>0</v>
       </c>
-      <c r="H79" s="13" t="s">
-        <v>46</v>
+      <c r="H79" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>25</v>
@@ -3885,8 +3857,8 @@
         <v>10</v>
       </c>
       <c r="K79" s="5"/>
-      <c r="L79" s="14" t="s">
-        <v>62</v>
+      <c r="L79" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/RobotConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RobotConfig.xlsx
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="57">
   <si>
     <t>cs</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>恶魔活动机器人</t>
+  </si>
+  <si>
+    <t>地下城组队机器人</t>
   </si>
 </sst>
 </file>
@@ -1342,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G59" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" topLeftCell="G62" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3861,6 +3864,37 @@
         <v>29</v>
       </c>
     </row>
+    <row r="80" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="B80" s="7"/>
+      <c r="C80" s="5">
+        <v>11001</v>
+      </c>
+      <c r="D80" s="5">
+        <v>20</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="5">
+        <v>1</v>
+      </c>
+      <c r="G80" s="5">
+        <v>101</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J80" s="8">
+        <v>11</v>
+      </c>
+      <c r="K80" s="5">
+        <v>0</v>
+      </c>
+      <c r="L80" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/RobotConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RobotConfig.xlsx
@@ -1347,8 +1347,8 @@
   <sheetPr/>
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G62" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="G58" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3891,7 +3891,7 @@
         <v>11</v>
       </c>
       <c r="K80" s="5">
-        <v>0</v>
+        <v>1000001</v>
       </c>
       <c r="L80" s="11"/>
     </row>

--- a/Unity/Assets/Config/Excel/RobotConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RobotConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761BA875-E0A4-4BD8-902B-5A931096E4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="1" r:id="rId1"/>
@@ -27,13 +33,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1">
+    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -311,14 +317,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,147 +352,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,8 +369,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,194 +395,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -734,354 +417,68 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 6" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1339,16 +736,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G58" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1367,7 +764,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +780,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1399,7 +796,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -1433,7 +830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -1467,7 +864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
@@ -1501,7 +898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1000</v>
@@ -1528,7 +925,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="7"/>
       <c r="C7" s="5">
         <v>1001</v>
@@ -1555,7 +952,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="7"/>
       <c r="C8" s="5">
         <v>2101</v>
@@ -1570,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>28</v>
@@ -1588,7 +985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="7"/>
       <c r="C9" s="5">
         <v>2102</v>
@@ -1603,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>28</v>
@@ -1621,7 +1018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="7"/>
       <c r="C10" s="5">
         <v>2103</v>
@@ -1636,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>30</v>
@@ -1654,7 +1051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="7"/>
       <c r="C11" s="5">
         <v>2104</v>
@@ -1669,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>31</v>
@@ -1687,7 +1084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="7"/>
       <c r="C12" s="5">
         <v>2105</v>
@@ -1702,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="5">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>31</v>
@@ -1720,7 +1117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="7"/>
       <c r="C13" s="5">
         <v>2106</v>
@@ -1735,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>32</v>
@@ -1753,7 +1150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="7"/>
       <c r="C14" s="5">
         <f>C8+100</f>
@@ -1769,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>33</v>
@@ -1787,7 +1184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="7"/>
       <c r="C15" s="5">
         <f t="shared" ref="C15:C37" si="0">C9+100</f>
@@ -1803,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>33</v>
@@ -1821,7 +1218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="7"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
@@ -1837,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>34</v>
@@ -1855,7 +1252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="17" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="7"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
@@ -1871,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>35</v>
@@ -1889,7 +1286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="18" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="7"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
@@ -1905,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="5">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>35</v>
@@ -1923,7 +1320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="19" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="7"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
@@ -1939,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>36</v>
@@ -1957,7 +1354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="20" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="7"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
@@ -1973,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>37</v>
@@ -1991,7 +1388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="21" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="7"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
@@ -2007,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>37</v>
@@ -2025,7 +1422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="22" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="7"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -2041,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>38</v>
@@ -2059,7 +1456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="23" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="7"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
@@ -2075,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>39</v>
@@ -2093,7 +1490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="24" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="7"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
@@ -2109,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="5">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>39</v>
@@ -2127,7 +1524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="25" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="7"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
@@ -2143,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>40</v>
@@ -2161,7 +1558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="26" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="7"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
@@ -2177,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>41</v>
@@ -2195,7 +1592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="27" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="7"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -2211,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>41</v>
@@ -2229,7 +1626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="28" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="7"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
@@ -2245,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>42</v>
@@ -2263,7 +1660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="29" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="7"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
@@ -2279,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>43</v>
@@ -2297,7 +1694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="30" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="7"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
@@ -2313,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="5">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>43</v>
@@ -2331,7 +1728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="31" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="7"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
@@ -2347,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>44</v>
@@ -2365,7 +1762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="32" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="7"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
@@ -2381,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>41</v>
@@ -2399,7 +1796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="33" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="7"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
@@ -2415,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>41</v>
@@ -2433,7 +1830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="34" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
@@ -2449,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>42</v>
@@ -2467,7 +1864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="35" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="7"/>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
@@ -2483,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>43</v>
@@ -2501,7 +1898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="36" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="7"/>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
@@ -2517,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="5">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>43</v>
@@ -2535,7 +1932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="37" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="7"/>
       <c r="C37" s="5">
         <f t="shared" si="0"/>
@@ -2551,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>44</v>
@@ -2569,7 +1966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="38" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="7"/>
       <c r="C38" s="5">
         <v>3001</v>
@@ -2584,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>28</v>
@@ -2600,7 +1997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="39" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="7"/>
       <c r="C39" s="5">
         <v>3002</v>
@@ -2615,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>28</v>
@@ -2631,7 +2028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="40" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="7"/>
       <c r="C40" s="5">
         <v>3003</v>
@@ -2646,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>30</v>
@@ -2662,7 +2059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="41" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="7"/>
       <c r="C41" s="5">
         <v>3004</v>
@@ -2677,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>31</v>
@@ -2693,7 +2090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="42" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="7"/>
       <c r="C42" s="5">
         <v>3005</v>
@@ -2708,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="5">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>31</v>
@@ -2724,7 +2121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="43" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="7"/>
       <c r="C43" s="5">
         <v>3006</v>
@@ -2739,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>32</v>
@@ -2755,7 +2152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="44" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="7"/>
       <c r="C44" s="5">
         <v>3051</v>
@@ -2770,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>33</v>
@@ -2786,7 +2183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="45" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="7"/>
       <c r="C45" s="5">
         <v>3052</v>
@@ -2801,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>33</v>
@@ -2817,7 +2214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="46" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="7"/>
       <c r="C46" s="5">
         <v>3053</v>
@@ -2832,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>34</v>
@@ -2848,7 +2245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="47" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="7"/>
       <c r="C47" s="5">
         <v>3054</v>
@@ -2863,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>35</v>
@@ -2879,7 +2276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="48" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="7"/>
       <c r="C48" s="5">
         <v>3055</v>
@@ -2894,7 +2291,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="5">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>35</v>
@@ -2910,7 +2307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="49" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="7"/>
       <c r="C49" s="5">
         <v>3056</v>
@@ -2925,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>36</v>
@@ -2941,7 +2338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="50" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="7"/>
       <c r="C50" s="5">
         <v>5101</v>
@@ -2956,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>28</v>
@@ -2974,7 +2371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="51" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="7"/>
       <c r="C51" s="5">
         <v>5102</v>
@@ -2989,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>28</v>
@@ -3007,7 +2404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="52" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="7"/>
       <c r="C52" s="5">
         <v>5103</v>
@@ -3022,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>30</v>
@@ -3040,7 +2437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="53" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="7"/>
       <c r="C53" s="5">
         <v>5104</v>
@@ -3055,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>31</v>
@@ -3071,7 +2468,7 @@
       </c>
       <c r="L53" s="11"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="54" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="7"/>
       <c r="C54" s="5">
         <v>5105</v>
@@ -3086,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="5">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>31</v>
@@ -3102,7 +2499,7 @@
       </c>
       <c r="L54" s="11"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="55" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="7"/>
       <c r="C55" s="5">
         <v>5106</v>
@@ -3117,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="G55" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>32</v>
@@ -3133,7 +2530,7 @@
       </c>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="56" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="7"/>
       <c r="C56" s="5">
         <v>5201</v>
@@ -3148,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>33</v>
@@ -3164,7 +2561,7 @@
       </c>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="57" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="7"/>
       <c r="C57" s="5">
         <v>5202</v>
@@ -3179,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>33</v>
@@ -3195,7 +2592,7 @@
       </c>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="58" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="7"/>
       <c r="C58" s="5">
         <v>5203</v>
@@ -3210,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>34</v>
@@ -3226,7 +2623,7 @@
       </c>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="59" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="7"/>
       <c r="C59" s="5">
         <v>5204</v>
@@ -3241,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>35</v>
@@ -3257,7 +2654,7 @@
       </c>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="60" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="7"/>
       <c r="C60" s="5">
         <v>5205</v>
@@ -3272,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="5">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>35</v>
@@ -3288,7 +2685,7 @@
       </c>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="61" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="7"/>
       <c r="C61" s="5">
         <v>5206</v>
@@ -3303,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>36</v>
@@ -3319,7 +2716,7 @@
       </c>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="62" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="7"/>
       <c r="C62" s="5">
         <v>5301</v>
@@ -3334,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>37</v>
@@ -3350,7 +2747,7 @@
       </c>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="63" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="7"/>
       <c r="C63" s="5">
         <v>5302</v>
@@ -3365,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>37</v>
@@ -3381,7 +2778,7 @@
       </c>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="64" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="7"/>
       <c r="C64" s="5">
         <v>5303</v>
@@ -3396,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>38</v>
@@ -3412,7 +2809,7 @@
       </c>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="65" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B65" s="7"/>
       <c r="C65" s="5">
         <v>5304</v>
@@ -3427,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>39</v>
@@ -3443,7 +2840,7 @@
       </c>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="66" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B66" s="7"/>
       <c r="C66" s="5">
         <v>5305</v>
@@ -3458,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="5">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>39</v>
@@ -3474,7 +2871,7 @@
       </c>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="67" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B67" s="7"/>
       <c r="C67" s="5">
         <v>5306</v>
@@ -3489,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>40</v>
@@ -3505,7 +2902,7 @@
       </c>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="68" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B68" s="7"/>
       <c r="C68" s="5">
         <v>5401</v>
@@ -3520,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>41</v>
@@ -3536,7 +2933,7 @@
       </c>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="69" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B69" s="7"/>
       <c r="C69" s="5">
         <v>5402</v>
@@ -3551,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>41</v>
@@ -3567,7 +2964,7 @@
       </c>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="70" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B70" s="7"/>
       <c r="C70" s="5">
         <v>5403</v>
@@ -3582,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="5">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>42</v>
@@ -3598,7 +2995,7 @@
       </c>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="71" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B71" s="7"/>
       <c r="C71" s="5">
         <v>5404</v>
@@ -3613,7 +3010,7 @@
         <v>2</v>
       </c>
       <c r="G71" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>43</v>
@@ -3629,7 +3026,7 @@
       </c>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="72" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="7"/>
       <c r="C72" s="5">
         <v>5405</v>
@@ -3644,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="G72" s="5">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>43</v>
@@ -3660,7 +3057,7 @@
       </c>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="73" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="7"/>
       <c r="C73" s="5">
         <v>5406</v>
@@ -3675,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>44</v>
@@ -3691,7 +3088,7 @@
       </c>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="74" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B74" s="7"/>
       <c r="C74" s="5">
         <v>5001</v>
@@ -3706,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="5">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>36</v>
@@ -3722,7 +3119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:10">
+    <row r="75" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="C75" s="5">
         <v>6001</v>
       </c>
@@ -3735,8 +3132,8 @@
       <c r="F75" s="3">
         <v>2</v>
       </c>
-      <c r="G75" s="3">
-        <v>203</v>
+      <c r="G75" s="5">
+        <v>0</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>36</v>
@@ -3748,7 +3145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="76" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B76" s="7"/>
       <c r="C76" s="5">
         <v>7001</v>
@@ -3775,7 +3172,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="77" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B77" s="7"/>
       <c r="C77" s="5">
         <v>8001</v>
@@ -3802,7 +3199,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="78" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B78" s="7"/>
       <c r="C78" s="5">
         <v>9001</v>
@@ -3833,7 +3230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="79" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B79" s="7"/>
       <c r="C79" s="5">
         <v>10001</v>
@@ -3864,7 +3261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="80" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B80" s="7"/>
       <c r="C80" s="5">
         <v>11001</v>
@@ -3879,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>28</v>
@@ -3896,9 +3293,9 @@
       <c r="L80" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/RobotConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RobotConfig.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761BA875-E0A4-4BD8-902B-5A931096E4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C232B9E-DB5D-4FBB-8147-0222942D6BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -46,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -54,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -68,6 +57,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -76,6 +66,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -99,6 +90,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -107,6 +99,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -121,6 +114,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -129,6 +123,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -141,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
   <si>
     <t>cs</t>
   </si>
@@ -330,6 +325,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -337,24 +333,28 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -362,16 +362,19 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -742,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3267,7 +3270,7 @@
         <v>11001</v>
       </c>
       <c r="D80" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>56</v>
@@ -3291,6 +3294,130 @@
         <v>1000001</v>
       </c>
       <c r="L80" s="11"/>
+    </row>
+    <row r="81" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B81" s="7"/>
+      <c r="C81" s="5">
+        <v>11002</v>
+      </c>
+      <c r="D81" s="5">
+        <v>20</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="5">
+        <v>1</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J81" s="8">
+        <v>11</v>
+      </c>
+      <c r="K81" s="5">
+        <v>1000002</v>
+      </c>
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B82" s="7"/>
+      <c r="C82" s="5">
+        <v>11003</v>
+      </c>
+      <c r="D82" s="5">
+        <v>30</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="5">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J82" s="8">
+        <v>11</v>
+      </c>
+      <c r="K82" s="5">
+        <v>1000003</v>
+      </c>
+      <c r="L82" s="11"/>
+    </row>
+    <row r="83" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B83" s="7"/>
+      <c r="C83" s="5">
+        <v>11004</v>
+      </c>
+      <c r="D83" s="5">
+        <v>40</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="5">
+        <v>1</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J83" s="8">
+        <v>11</v>
+      </c>
+      <c r="K83" s="5">
+        <v>1000004</v>
+      </c>
+      <c r="L83" s="11"/>
+    </row>
+    <row r="84" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B84" s="7"/>
+      <c r="C84" s="5">
+        <v>11005</v>
+      </c>
+      <c r="D84" s="5">
+        <v>50</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J84" s="8">
+        <v>11</v>
+      </c>
+      <c r="K84" s="5">
+        <v>1000005</v>
+      </c>
+      <c r="L84" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/RobotConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RobotConfig.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C232B9E-DB5D-4FBB-8147-0222942D6BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -42,7 +48,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -50,14 +55,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -66,31 +70,32 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1   任务机器人
-2   组队副本机器人
-3   战场机器人
-4   世界boos机器人
-5   角斗场机器人
-6   solo场机器人
-7   剧情机器人
-8   塔防机器人
-9   奔跑大赛机器人
-10  恶魔活动机器人</t>
+//0   测试机器人
+            //1   任务机器人
+            //2   组队副本机器人
+            //3   战场机器人
+            //4   世界boos机器人
+            //5   角斗场机器人
+            //6   solo场机器人
+            //7   副本机器人
+            //8   塔防机器人
+            //9   奔跑大赛机器人
+            //10  恶魔活动机器人
+            //11  龙与地下城机器人
+            //12  宠物挑战赛机器人</t>
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -99,7 +104,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -107,14 +111,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -123,7 +126,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -136,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="58">
   <si>
     <t>cs</t>
   </si>
@@ -307,13 +309,22 @@
   </si>
   <si>
     <t>地下城组队机器人</t>
+  </si>
+  <si>
+    <t>宠物挑战赛机器人</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,7 +336,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -333,53 +350,177 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,8 +539,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -420,68 +747,354 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 6" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -739,16 +1352,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -767,7 +1380,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -783,7 +1396,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -799,7 +1412,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -833,7 +1446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -867,7 +1480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
@@ -901,7 +1514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1000</v>
@@ -928,7 +1541,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B7" s="7"/>
       <c r="C7" s="5">
         <v>1001</v>
@@ -955,7 +1568,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B8" s="7"/>
       <c r="C8" s="5">
         <v>2101</v>
@@ -988,7 +1601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B9" s="7"/>
       <c r="C9" s="5">
         <v>2102</v>
@@ -1021,7 +1634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B10" s="7"/>
       <c r="C10" s="5">
         <v>2103</v>
@@ -1054,7 +1667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B11" s="7"/>
       <c r="C11" s="5">
         <v>2104</v>
@@ -1087,7 +1700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B12" s="7"/>
       <c r="C12" s="5">
         <v>2105</v>
@@ -1120,7 +1733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B13" s="7"/>
       <c r="C13" s="5">
         <v>2106</v>
@@ -1153,7 +1766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B14" s="7"/>
       <c r="C14" s="5">
         <f>C8+100</f>
@@ -1187,7 +1800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B15" s="7"/>
       <c r="C15" s="5">
         <f t="shared" ref="C15:C37" si="0">C9+100</f>
@@ -1221,7 +1834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B16" s="7"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
@@ -1255,7 +1868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B17" s="7"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
@@ -1289,7 +1902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B18" s="7"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
@@ -1323,7 +1936,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B19" s="7"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
@@ -1357,7 +1970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B20" s="7"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
@@ -1391,7 +2004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B21" s="7"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
@@ -1425,7 +2038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B22" s="7"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -1459,7 +2072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B23" s="7"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
@@ -1493,7 +2106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B24" s="7"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
@@ -1527,7 +2140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B25" s="7"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
@@ -1561,7 +2174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B26" s="7"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
@@ -1595,7 +2208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B27" s="7"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -1629,7 +2242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B28" s="7"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
@@ -1663,7 +2276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B29" s="7"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
@@ -1697,7 +2310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B30" s="7"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
@@ -1731,7 +2344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B31" s="7"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
@@ -1765,7 +2378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B32" s="7"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
@@ -1799,7 +2412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B33" s="7"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
@@ -1833,7 +2446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B34" s="7"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
@@ -1867,7 +2480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B35" s="7"/>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
@@ -1901,7 +2514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B36" s="7"/>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
@@ -1935,7 +2548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B37" s="7"/>
       <c r="C37" s="5">
         <f t="shared" si="0"/>
@@ -1969,7 +2582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B38" s="7"/>
       <c r="C38" s="5">
         <v>3001</v>
@@ -2000,7 +2613,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B39" s="7"/>
       <c r="C39" s="5">
         <v>3002</v>
@@ -2031,7 +2644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B40" s="7"/>
       <c r="C40" s="5">
         <v>3003</v>
@@ -2062,7 +2675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B41" s="7"/>
       <c r="C41" s="5">
         <v>3004</v>
@@ -2093,7 +2706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B42" s="7"/>
       <c r="C42" s="5">
         <v>3005</v>
@@ -2124,7 +2737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B43" s="7"/>
       <c r="C43" s="5">
         <v>3006</v>
@@ -2155,7 +2768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B44" s="7"/>
       <c r="C44" s="5">
         <v>3051</v>
@@ -2186,7 +2799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B45" s="7"/>
       <c r="C45" s="5">
         <v>3052</v>
@@ -2217,7 +2830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B46" s="7"/>
       <c r="C46" s="5">
         <v>3053</v>
@@ -2248,7 +2861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B47" s="7"/>
       <c r="C47" s="5">
         <v>3054</v>
@@ -2279,7 +2892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B48" s="7"/>
       <c r="C48" s="5">
         <v>3055</v>
@@ -2310,7 +2923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B49" s="7"/>
       <c r="C49" s="5">
         <v>3056</v>
@@ -2341,7 +2954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B50" s="7"/>
       <c r="C50" s="5">
         <v>5101</v>
@@ -2374,7 +2987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B51" s="7"/>
       <c r="C51" s="5">
         <v>5102</v>
@@ -2407,7 +3020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B52" s="7"/>
       <c r="C52" s="5">
         <v>5103</v>
@@ -2440,7 +3053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B53" s="7"/>
       <c r="C53" s="5">
         <v>5104</v>
@@ -2471,7 +3084,7 @@
       </c>
       <c r="L53" s="11"/>
     </row>
-    <row r="54" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B54" s="7"/>
       <c r="C54" s="5">
         <v>5105</v>
@@ -2502,7 +3115,7 @@
       </c>
       <c r="L54" s="11"/>
     </row>
-    <row r="55" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B55" s="7"/>
       <c r="C55" s="5">
         <v>5106</v>
@@ -2533,7 +3146,7 @@
       </c>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B56" s="7"/>
       <c r="C56" s="5">
         <v>5201</v>
@@ -2564,7 +3177,7 @@
       </c>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B57" s="7"/>
       <c r="C57" s="5">
         <v>5202</v>
@@ -2595,7 +3208,7 @@
       </c>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B58" s="7"/>
       <c r="C58" s="5">
         <v>5203</v>
@@ -2626,7 +3239,7 @@
       </c>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B59" s="7"/>
       <c r="C59" s="5">
         <v>5204</v>
@@ -2657,7 +3270,7 @@
       </c>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B60" s="7"/>
       <c r="C60" s="5">
         <v>5205</v>
@@ -2688,7 +3301,7 @@
       </c>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B61" s="7"/>
       <c r="C61" s="5">
         <v>5206</v>
@@ -2719,7 +3332,7 @@
       </c>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B62" s="7"/>
       <c r="C62" s="5">
         <v>5301</v>
@@ -2750,7 +3363,7 @@
       </c>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B63" s="7"/>
       <c r="C63" s="5">
         <v>5302</v>
@@ -2781,7 +3394,7 @@
       </c>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B64" s="7"/>
       <c r="C64" s="5">
         <v>5303</v>
@@ -2812,7 +3425,7 @@
       </c>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B65" s="7"/>
       <c r="C65" s="5">
         <v>5304</v>
@@ -2843,7 +3456,7 @@
       </c>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B66" s="7"/>
       <c r="C66" s="5">
         <v>5305</v>
@@ -2874,7 +3487,7 @@
       </c>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B67" s="7"/>
       <c r="C67" s="5">
         <v>5306</v>
@@ -2905,7 +3518,7 @@
       </c>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B68" s="7"/>
       <c r="C68" s="5">
         <v>5401</v>
@@ -2936,7 +3549,7 @@
       </c>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B69" s="7"/>
       <c r="C69" s="5">
         <v>5402</v>
@@ -2967,7 +3580,7 @@
       </c>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B70" s="7"/>
       <c r="C70" s="5">
         <v>5403</v>
@@ -2998,7 +3611,7 @@
       </c>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B71" s="7"/>
       <c r="C71" s="5">
         <v>5404</v>
@@ -3029,7 +3642,7 @@
       </c>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B72" s="7"/>
       <c r="C72" s="5">
         <v>5405</v>
@@ -3060,7 +3673,7 @@
       </c>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B73" s="7"/>
       <c r="C73" s="5">
         <v>5406</v>
@@ -3091,7 +3704,7 @@
       </c>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B74" s="7"/>
       <c r="C74" s="5">
         <v>5001</v>
@@ -3122,7 +3735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="75" ht="20.1" customHeight="1" spans="3:10">
       <c r="C75" s="5">
         <v>6001</v>
       </c>
@@ -3148,7 +3761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="76" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B76" s="7"/>
       <c r="C76" s="5">
         <v>7001</v>
@@ -3175,7 +3788,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="77" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B77" s="7"/>
       <c r="C77" s="5">
         <v>8001</v>
@@ -3202,7 +3815,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="78" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B78" s="7"/>
       <c r="C78" s="5">
         <v>9001</v>
@@ -3233,7 +3846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="79" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B79" s="7"/>
       <c r="C79" s="5">
         <v>10001</v>
@@ -3264,7 +3877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="80" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B80" s="7"/>
       <c r="C80" s="5">
         <v>11001</v>
@@ -3295,7 +3908,7 @@
       </c>
       <c r="L80" s="11"/>
     </row>
-    <row r="81" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="81" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B81" s="7"/>
       <c r="C81" s="5">
         <v>11002</v>
@@ -3326,7 +3939,7 @@
       </c>
       <c r="L81" s="11"/>
     </row>
-    <row r="82" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="82" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B82" s="7"/>
       <c r="C82" s="5">
         <v>11003</v>
@@ -3357,7 +3970,7 @@
       </c>
       <c r="L82" s="11"/>
     </row>
-    <row r="83" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="83" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B83" s="7"/>
       <c r="C83" s="5">
         <v>11004</v>
@@ -3388,7 +4001,7 @@
       </c>
       <c r="L83" s="11"/>
     </row>
-    <row r="84" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="84" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B84" s="7"/>
       <c r="C84" s="5">
         <v>11005</v>
@@ -3419,10 +4032,41 @@
       </c>
       <c r="L84" s="11"/>
     </row>
+    <row r="85" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="B85" s="7"/>
+      <c r="C85" s="5">
+        <v>12001</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" s="5">
+        <v>1</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J85" s="8">
+        <v>12</v>
+      </c>
+      <c r="K85" s="5">
+        <v>2900001</v>
+      </c>
+      <c r="L85" s="11"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>